--- a/ffxiv_mmd_tools_helper_beta/data/rigid_body.xlsx
+++ b/ffxiv_mmd_tools_helper_beta/data/rigid_body.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MMD\ffxiv_mmd_tools_helper\ffxiv_mmd_tools_helper_beta\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E9659-65ED-49D1-8425-69B97804004E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873343ED-FB46-4244-95C0-9482DE8A2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44295" yWindow="4650" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39885" yWindow="4200" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="83">
   <si>
     <t>bone_name</t>
   </si>
@@ -260,6 +260,21 @@
   </si>
   <si>
     <t>j_asi_c_r</t>
+  </si>
+  <si>
+    <t>rigid_body_name</t>
+  </si>
+  <si>
+    <t>upper_body b</t>
+  </si>
+  <si>
+    <t>j_mune_l</t>
+  </si>
+  <si>
+    <t>j_mune_r</t>
+  </si>
+  <si>
+    <t>upper body 2b</t>
   </si>
 </sst>
 </file>
@@ -533,9 +548,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}" name="Table22" displayName="Table22" ref="A1:AH32" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:AH32" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}"/>
-  <tableColumns count="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}" name="Table22" displayName="Table22" ref="A1:AI32" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:AI32" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}"/>
+  <tableColumns count="35">
+    <tableColumn id="6" xr3:uid="{46085F6A-14DA-41C2-880B-EA29369D9E3D}" name="rigid_body_name"/>
     <tableColumn id="3" xr3:uid="{E619AE08-CCC5-4E49-92F3-B342CA7A97F8}" name="bone_name"/>
     <tableColumn id="37" xr3:uid="{C9198B0D-8302-498D-9D2E-2D9754DE85EA}" name="offset_x"/>
     <tableColumn id="38" xr3:uid="{EC4189AE-8CF9-413F-BBCC-922A256DEC18}" name="offset_y"/>
@@ -2253,167 +2269,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D213BE9-EC88-43A5-B10E-7AC8A26A2FF6}">
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" customWidth="1"/>
-    <col min="26" max="27" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" customWidth="1"/>
+    <col min="28" max="29" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6">
+        <v>0.08</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2421,61 +2446,64 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="6">
-        <v>1</v>
-      </c>
-      <c r="S2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6">
+        <v>1</v>
+      </c>
       <c r="T2" s="6"/>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
+      <c r="U2" s="6"/>
       <c r="V2" s="6">
         <v>0</v>
       </c>
       <c r="W2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="X2" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0.5</v>
+      </c>
       <c r="Y2" s="6"/>
-      <c r="Z2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6">
+        <v>0</v>
+      </c>
       <c r="AB2" s="6"/>
-      <c r="AC2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AD2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6">
+        <v>0.5</v>
+      </c>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="7"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="7"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>0.05</v>
       </c>
-      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2483,1306 +2511,1483 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
       <c r="T3" s="2"/>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
+      <c r="U3" s="2"/>
       <c r="V3" s="2">
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.5</v>
+      </c>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AD3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="3"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="3"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="6">
         <v>0.06</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="6">
         <v>0.12</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
+      <c r="S4">
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0.5</v>
-      </c>
-      <c r="AF4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0.5</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.5</v>
+      </c>
+      <c r="AG4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I5">
+      <c r="J5" s="6">
         <v>0.1</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
+      <c r="K5" s="6"/>
+      <c r="S5">
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0.5</v>
-      </c>
-      <c r="AF5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0.5</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.5</v>
+      </c>
+      <c r="AG5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="6">
         <v>0.06</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
+      <c r="S6">
+        <v>1</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0.5</v>
-      </c>
-      <c r="AF6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0.5</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0.5</v>
+      </c>
+      <c r="AG6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I7">
+      <c r="J7" s="6">
         <v>0.08</v>
       </c>
-      <c r="J7">
+      <c r="K7" s="6">
         <v>0.15</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
+      <c r="S7">
+        <v>1</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.5</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0.5</v>
-      </c>
-      <c r="AF7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0.5</v>
+      </c>
+      <c r="AG7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J8">
+      <c r="K8" s="6">
         <v>0.03</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
+      <c r="S8">
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.5</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0.5</v>
-      </c>
-      <c r="AF8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0.5</v>
+      </c>
+      <c r="AG8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J9">
+      <c r="J9" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="K9" s="6">
         <v>0.03</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
+      <c r="S9">
+        <v>1</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0.5</v>
-      </c>
-      <c r="AF9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0.5</v>
+      </c>
+      <c r="AG9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="6">
         <v>5.5E-2</v>
       </c>
-      <c r="R10">
+      <c r="K10" s="6"/>
+      <c r="S10">
         <v>0.1</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>0.45</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>17</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.999</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>0.999</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-0.01</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I11">
+      <c r="J11" s="6">
         <v>5.5E-2</v>
       </c>
-      <c r="R11">
+      <c r="K11" s="6"/>
+      <c r="S11">
         <v>0.1</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>0.45</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>17</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>0.999</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>0.999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="B12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I12">
+      <c r="J12" s="6">
         <v>0.1</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="6">
         <v>0.08</v>
       </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
+      <c r="S12">
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0.5</v>
-      </c>
-      <c r="AF12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0.5</v>
+      </c>
+      <c r="AG12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I13">
+      <c r="J13" s="6">
         <v>0.09</v>
       </c>
-      <c r="J13">
+      <c r="K13" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
+      <c r="S13">
+        <v>1</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0.5</v>
-      </c>
-      <c r="AF13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0.5</v>
+      </c>
+      <c r="AG13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I14">
+      <c r="J14" s="6">
         <v>0.09</v>
       </c>
-      <c r="J14">
+      <c r="K14" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
+      <c r="S14">
+        <v>1</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0.5</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0.5</v>
-      </c>
-      <c r="AF14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0.5</v>
+      </c>
+      <c r="AG14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I15">
+      <c r="J15" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15" s="6">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
+      <c r="S15">
+        <v>1</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0.5</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0.5</v>
-      </c>
-      <c r="AF15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0.5</v>
+      </c>
+      <c r="AG15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I16">
+      <c r="J16" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="J16">
+      <c r="K16" s="6">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
+      <c r="S16">
+        <v>1</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0.5</v>
-      </c>
-      <c r="AF16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0.5</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0.5</v>
+      </c>
+      <c r="AG16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="B17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I17">
+      <c r="J17" s="6">
         <v>0.06</v>
       </c>
-      <c r="J17">
+      <c r="K17" s="6">
         <v>0.4</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
+      <c r="S17">
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0.5</v>
-      </c>
-      <c r="AF17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0.5</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0.5</v>
+      </c>
+      <c r="AG17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="B18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I18">
+      <c r="J18" s="6">
         <v>0.06</v>
       </c>
-      <c r="J18">
+      <c r="K18" s="6">
         <v>0.4</v>
       </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
+      <c r="S18">
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0.5</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0.5</v>
-      </c>
-      <c r="AF18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0.5</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0.5</v>
+      </c>
+      <c r="AG18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="B19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I19">
+      <c r="J19" s="6">
         <v>0.04</v>
       </c>
-      <c r="J19">
+      <c r="K19" s="6">
         <v>0.13</v>
       </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
+      <c r="S19">
+        <v>1</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0.5</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0.5</v>
-      </c>
-      <c r="AF19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0.5</v>
+      </c>
+      <c r="AG19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="B20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I20">
+      <c r="J20" s="6">
         <v>0.04</v>
       </c>
-      <c r="J20">
+      <c r="K20" s="6">
         <v>0.13</v>
       </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
+      <c r="S20">
+        <v>1</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0.5</v>
-      </c>
-      <c r="AF20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0.5</v>
+      </c>
+      <c r="AG20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="B21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I21">
+      <c r="J21" s="6">
         <v>0.08</v>
       </c>
-      <c r="J21">
+      <c r="K21" s="6">
         <v>0.08</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
+      <c r="S21">
+        <v>1</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0.5</v>
-      </c>
-      <c r="AF21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0.5</v>
+      </c>
+      <c r="AG21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I22">
+      <c r="J22" s="6">
         <v>0.08</v>
       </c>
-      <c r="J22">
+      <c r="K22" s="6">
         <v>0.08</v>
       </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
+      <c r="S22">
+        <v>1</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0.5</v>
-      </c>
-      <c r="AF22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0.5</v>
+      </c>
+      <c r="AG22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I23">
+      <c r="J23" s="6">
         <v>0.06</v>
       </c>
-      <c r="J23">
+      <c r="K23" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
+      <c r="S23">
+        <v>1</v>
       </c>
       <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>14</v>
       </c>
-      <c r="W23">
-        <v>0.5</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0.5</v>
-      </c>
-      <c r="AF23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0.5</v>
+      </c>
+      <c r="AG23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I24">
+      <c r="J24" s="6">
         <v>0.06</v>
       </c>
-      <c r="J24">
+      <c r="K24" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
+      <c r="S24">
+        <v>1</v>
       </c>
       <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>14</v>
       </c>
-      <c r="W24">
-        <v>0.5</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0.5</v>
-      </c>
-      <c r="AF24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="X24">
+        <v>0.5</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0.5</v>
+      </c>
+      <c r="AG24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="B25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I25">
+      <c r="J25" s="6">
         <v>0.05</v>
       </c>
-      <c r="J25">
+      <c r="K25" s="6">
         <v>0.25</v>
       </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
+      <c r="S25">
+        <v>1</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0.5</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0.5</v>
-      </c>
-      <c r="AF25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0.5</v>
+      </c>
+      <c r="AG25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="B26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I26">
+      <c r="J26" s="6">
         <v>0.05</v>
       </c>
-      <c r="J26">
+      <c r="K26" s="6">
         <v>0.25</v>
       </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
+      <c r="S26">
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0.5</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0.5</v>
-      </c>
-      <c r="AF26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0.5</v>
+      </c>
+      <c r="AG26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I27">
+      <c r="J27" s="6">
         <v>0.04</v>
       </c>
-      <c r="J27">
+      <c r="K27" s="6">
         <v>0.01</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.04</v>
       </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
+      <c r="S27">
+        <v>1</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0.5</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0.5</v>
-      </c>
-      <c r="AF27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0.5</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0.5</v>
+      </c>
+      <c r="AG27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I28">
+      <c r="J28" s="6">
         <v>0.04</v>
       </c>
-      <c r="J28">
+      <c r="K28" s="6">
         <v>0.01</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.04</v>
       </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
+      <c r="S28">
+        <v>1</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
       <c r="W28">
-        <v>0.5</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0.5</v>
-      </c>
-      <c r="AF28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0.5</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0.5</v>
+      </c>
+      <c r="AG28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="E29" t="s">
-        <v>11</v>
+      <c r="B29" t="s">
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
         <v>58</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.03</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.01</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.05</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>5</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>10</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
       <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>10</v>
       </c>
-      <c r="X29">
-        <v>0.5</v>
-      </c>
       <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="4" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
-      <c r="AD29">
+      <c r="AC29" s="4"/>
+      <c r="AE29">
         <v>0.995</v>
       </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
         <v>0.89</v>
       </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="E30" t="s">
-        <v>11</v>
+      <c r="B30" t="s">
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>57</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.03</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.04</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>10</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
       <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
         <v>8</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.6</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="E31" t="s">
-        <v>11</v>
+      <c r="B31" t="s">
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="8">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="8">
         <v>2</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>58</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.01</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.04</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>0.01</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.03</v>
-      </c>
-      <c r="S31">
-        <v>50</v>
       </c>
       <c r="T31">
         <v>50</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <v>3</v>
       </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
       <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
         <v>0.52</v>
       </c>
-      <c r="Z31" s="8" t="s">
+      <c r="AA31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AD31">
-        <v>0.5</v>
-      </c>
       <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
       </c>
       <c r="AH31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3884,6 +4089,9 @@
       </c>
       <c r="AH32">
         <v>33</v>
+      </c>
+      <c r="AI32">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ffxiv_mmd_tools_helper_beta/data/rigid_body.xlsx
+++ b/ffxiv_mmd_tools_helper_beta/data/rigid_body.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MMD\ffxiv_mmd_tools_helper\ffxiv_mmd_tools_helper_beta\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873343ED-FB46-4244-95C0-9482DE8A2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B765F2D7-B97D-4A0C-B66B-2CB64FAE0301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39885" yWindow="4200" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="90">
   <si>
     <t>bone_name</t>
   </si>
@@ -275,6 +275,27 @@
   </si>
   <si>
     <t>upper body 2b</t>
+  </si>
+  <si>
+    <t>j_kami_a</t>
+  </si>
+  <si>
+    <t>4/8/6/7/8/10</t>
+  </si>
+  <si>
+    <t>j_kami_b</t>
+  </si>
+  <si>
+    <t>j_ex_h0106_ke_f_a</t>
+  </si>
+  <si>
+    <t>j_ex_h0106_ke_f_b</t>
+  </si>
+  <si>
+    <t>j_kami_f_l</t>
+  </si>
+  <si>
+    <t>j_kami_f_r</t>
   </si>
 </sst>
 </file>
@@ -548,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}" name="Table22" displayName="Table22" ref="A1:AI32" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:AI32" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}" name="Table22" displayName="Table22" ref="A1:AI37" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:AI37" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}"/>
   <tableColumns count="35">
     <tableColumn id="6" xr3:uid="{46085F6A-14DA-41C2-880B-EA29369D9E3D}" name="rigid_body_name"/>
     <tableColumn id="3" xr3:uid="{E619AE08-CCC5-4E49-92F3-B342CA7A97F8}" name="bone_name"/>
@@ -2269,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D213BE9-EC88-43A5-B10E-7AC8A26A2FF6}">
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,10 +2866,10 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="6">
@@ -2860,22 +2881,21 @@
       <c r="E10" s="6">
         <v>0.02</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <v>5.5E-2</v>
       </c>
-      <c r="K10" s="6"/>
       <c r="S10">
         <v>0.1</v>
       </c>
@@ -2886,23 +2906,25 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="s">
         <v>17</v>
       </c>
-      <c r="AD10">
-        <v>0.999</v>
-      </c>
-      <c r="AG10">
-        <v>0.999</v>
+      <c r="AD10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6">
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="6">
@@ -2914,22 +2936,21 @@
       <c r="E11" s="6">
         <v>0.02</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11">
         <v>5.5E-2</v>
       </c>
-      <c r="K11" s="6"/>
       <c r="S11">
         <v>0.1</v>
       </c>
@@ -2940,16 +2961,18 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="s">
         <v>17</v>
       </c>
-      <c r="AD11">
-        <v>0.999</v>
-      </c>
-      <c r="AG11">
-        <v>0.999</v>
+      <c r="AD11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6">
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -3918,10 +3941,10 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -3930,168 +3953,373 @@
         <v>12</v>
       </c>
       <c r="H31" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>58</v>
       </c>
-      <c r="M31">
+      <c r="J31">
+        <v>0.02</v>
+      </c>
+      <c r="K31">
+        <v>0.09</v>
+      </c>
+      <c r="L31">
+        <v>0.04</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>4</v>
+      </c>
+      <c r="X31">
+        <v>0.6</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K32">
+        <v>0.05</v>
+      </c>
+      <c r="L32">
+        <v>0.05</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>4</v>
+      </c>
+      <c r="X32">
+        <v>0.6</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD32">
+        <v>0.75</v>
+      </c>
+      <c r="AG32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33">
         <v>0.01</v>
       </c>
-      <c r="N31">
+      <c r="K33">
+        <v>0.01</v>
+      </c>
+      <c r="L33">
+        <v>0.03</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>0.6</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34">
+        <v>0.01</v>
+      </c>
+      <c r="K34">
+        <v>0.01</v>
+      </c>
+      <c r="L34">
+        <v>0.03</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>0.6</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35">
         <v>0.04</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="E35">
+        <v>0.02</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35">
+        <v>0.02</v>
+      </c>
+      <c r="K35">
+        <v>0.09</v>
+      </c>
+      <c r="L35">
+        <v>0.04</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>0.6</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <v>0.02</v>
+      </c>
+      <c r="E36">
+        <v>0.03</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36">
+        <v>0.02</v>
+      </c>
+      <c r="K36">
+        <v>0.03</v>
+      </c>
+      <c r="L36">
+        <v>0.08</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="X36">
+        <v>0.6</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD36">
+        <v>0.75</v>
+      </c>
+      <c r="AG36">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M37">
         <v>0.01</v>
       </c>
-      <c r="R31">
+      <c r="N37">
+        <v>0.04</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0.01</v>
+      </c>
+      <c r="R37">
         <v>0.03</v>
       </c>
-      <c r="T31">
+      <c r="T37">
         <v>50</v>
       </c>
-      <c r="U31">
+      <c r="U37">
         <v>50</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>3</v>
       </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
-      <c r="Z31">
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
         <v>0.52</v>
       </c>
-      <c r="AA31" s="8" t="s">
+      <c r="AA37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AE31">
-        <v>0.5</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AH31">
-        <v>0.5</v>
-      </c>
-      <c r="AI31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <v>7</v>
-      </c>
-      <c r="I32">
-        <v>8</v>
-      </c>
-      <c r="J32">
-        <v>9</v>
-      </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>11</v>
-      </c>
-      <c r="M32">
-        <v>12</v>
-      </c>
-      <c r="N32">
-        <v>13</v>
-      </c>
-      <c r="O32">
-        <v>14</v>
-      </c>
-      <c r="P32">
-        <v>15</v>
-      </c>
-      <c r="Q32">
-        <v>16</v>
-      </c>
-      <c r="R32">
-        <v>17</v>
-      </c>
-      <c r="S32">
-        <v>18</v>
-      </c>
-      <c r="T32">
-        <v>19</v>
-      </c>
-      <c r="U32">
-        <v>20</v>
-      </c>
-      <c r="V32">
-        <v>21</v>
-      </c>
-      <c r="W32">
-        <v>22</v>
-      </c>
-      <c r="X32">
-        <v>23</v>
-      </c>
-      <c r="Y32">
-        <v>24</v>
-      </c>
-      <c r="Z32">
-        <v>25</v>
-      </c>
-      <c r="AA32">
-        <v>26</v>
-      </c>
-      <c r="AB32">
-        <v>27</v>
-      </c>
-      <c r="AC32">
-        <v>28</v>
-      </c>
-      <c r="AD32">
-        <v>29</v>
-      </c>
-      <c r="AE32">
-        <v>30</v>
-      </c>
-      <c r="AF32">
-        <v>31</v>
-      </c>
-      <c r="AG32">
-        <v>32</v>
-      </c>
-      <c r="AH32">
-        <v>33</v>
-      </c>
-      <c r="AI32">
-        <v>34</v>
+      <c r="AE37">
+        <v>0.5</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AH37">
+        <v>0.5</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ffxiv_mmd_tools_helper_beta/data/rigid_body.xlsx
+++ b/ffxiv_mmd_tools_helper_beta/data/rigid_body.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MMD\ffxiv_mmd_tools_helper\ffxiv_mmd_tools_helper_beta\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B765F2D7-B97D-4A0C-B66B-2CB64FAE0301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4005AB4-099E-454B-9ED2-5FA9155A047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43320" yWindow="1440" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="113">
   <si>
     <t>bone_name</t>
   </si>
@@ -296,6 +296,75 @@
   </si>
   <si>
     <t>j_kami_f_r</t>
+  </si>
+  <si>
+    <t>n_sippo_e</t>
+  </si>
+  <si>
+    <t>n_sippo_d</t>
+  </si>
+  <si>
+    <t>n_sippo_c</t>
+  </si>
+  <si>
+    <t>n_sippo_b</t>
+  </si>
+  <si>
+    <t>n_sippo_a</t>
+  </si>
+  <si>
+    <t>j_sk_b_a_l</t>
+  </si>
+  <si>
+    <t>j_sk_b_a_r</t>
+  </si>
+  <si>
+    <t>j_sk_b_b_l</t>
+  </si>
+  <si>
+    <t>j_sk_b_b_r</t>
+  </si>
+  <si>
+    <t>j_sk_b_c_l</t>
+  </si>
+  <si>
+    <t>j_sk_b_c_r</t>
+  </si>
+  <si>
+    <t>j_sk_f_a_l</t>
+  </si>
+  <si>
+    <t>j_sk_f_a_r</t>
+  </si>
+  <si>
+    <t>j_sk_f_b_l</t>
+  </si>
+  <si>
+    <t>j_sk_f_b_r</t>
+  </si>
+  <si>
+    <t>j_sk_f_c_l</t>
+  </si>
+  <si>
+    <t>j_sk_f_c_r</t>
+  </si>
+  <si>
+    <t>j_sk_s_a_l</t>
+  </si>
+  <si>
+    <t>j_sk_s_a_r</t>
+  </si>
+  <si>
+    <t>j_sk_s_b_l</t>
+  </si>
+  <si>
+    <t>j_sk_s_b_r</t>
+  </si>
+  <si>
+    <t>j_sk_s_c_l</t>
+  </si>
+  <si>
+    <t>j_sk_s_c_r</t>
   </si>
 </sst>
 </file>
@@ -431,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -445,18 +514,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -480,6 +550,13 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -569,46 +646,46 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}" name="Table22" displayName="Table22" ref="A1:AI37" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:AI37" xr:uid="{986ADBC9-5641-4E2C-BC2D-3201D64FDDC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65851253-A80B-4DD0-9F1A-C557CFC2122C}" name="Table1" displayName="Table1" ref="A1:AI60" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:AI60" xr:uid="{65851253-A80B-4DD0-9F1A-C557CFC2122C}"/>
   <tableColumns count="35">
-    <tableColumn id="6" xr3:uid="{46085F6A-14DA-41C2-880B-EA29369D9E3D}" name="rigid_body_name"/>
-    <tableColumn id="3" xr3:uid="{E619AE08-CCC5-4E49-92F3-B342CA7A97F8}" name="bone_name"/>
-    <tableColumn id="37" xr3:uid="{C9198B0D-8302-498D-9D2E-2D9754DE85EA}" name="offset_x"/>
-    <tableColumn id="38" xr3:uid="{EC4189AE-8CF9-413F-BBCC-922A256DEC18}" name="offset_y"/>
-    <tableColumn id="39" xr3:uid="{FCE94238-3823-4FCE-BFF8-E20617B9D135}" name="offset_z"/>
-    <tableColumn id="1" xr3:uid="{DDEABF0B-CBCD-477D-B6DE-96FF42444C3F}" name="name_j"/>
-    <tableColumn id="2" xr3:uid="{93AD990B-1D31-4652-825B-3B44B2B0B5E5}" name="name_e"/>
-    <tableColumn id="4" xr3:uid="{48FCBA26-C567-4757-A1CB-F189054FC7A9}" name="rigid_type"/>
-    <tableColumn id="5" xr3:uid="{77A91C45-C0A3-4AE6-A329-EA8A224B08A9}" name="rigid_shape"/>
-    <tableColumn id="8" xr3:uid="{397C7B06-F528-40A6-98DF-18B96F03D4E5}" name="x"/>
-    <tableColumn id="11" xr3:uid="{9FAD1590-9389-4A2B-ADFF-7B3F4C19CBB5}" name="y"/>
-    <tableColumn id="14" xr3:uid="{20A19396-F959-4CDD-8921-C7D6C75840A0}" name="z"/>
-    <tableColumn id="9" xr3:uid="{D378F802-8EC1-48A9-B014-E9846059CA73}" name="x_head"/>
-    <tableColumn id="10" xr3:uid="{9AB60552-785F-4D99-A7B3-58C0CAF983BC}" name="x_tail"/>
-    <tableColumn id="12" xr3:uid="{AB769C1C-6516-477E-8B5D-BA656E2E645B}" name="y_head"/>
-    <tableColumn id="13" xr3:uid="{A225EBFF-E536-4765-AFDB-B08276F5167F}" name="y_tail"/>
-    <tableColumn id="15" xr3:uid="{07F66C83-7A55-4680-A549-80616527CAC1}" name="z_head"/>
-    <tableColumn id="16" xr3:uid="{B795AD09-395C-4E1A-AED9-94434E8C911B}" name="z_tail"/>
-    <tableColumn id="17" xr3:uid="{853201D5-DDC5-4A4E-BEA4-04ACA7F6D04F}" name="mass"/>
-    <tableColumn id="18" xr3:uid="{543F7074-D765-497D-9971-43EC48B33D4F}" name="mass_head"/>
-    <tableColumn id="19" xr3:uid="{8672E2A9-726B-45BC-B112-04A7958220B4}" name="mass_tail"/>
-    <tableColumn id="20" xr3:uid="{8038BA8F-36D7-491C-BCD5-E8DE3ACDACAA}" name="bounce"/>
-    <tableColumn id="21" xr3:uid="{90527707-D7B6-4ACB-A19E-C1F2DCB2C270}" name="collision_group"/>
-    <tableColumn id="22" xr3:uid="{005DE8EF-8198-46E7-8669-823B7091A0EF}" name="friction"/>
-    <tableColumn id="23" xr3:uid="{3007F266-32ED-4559-9B79-5251BEBF65AD}" name="friction_head"/>
-    <tableColumn id="24" xr3:uid="{995622DD-ABF6-4A6F-8AE9-FB5F291D395A}" name="friction_tail"/>
-    <tableColumn id="25" xr3:uid="{7234E14D-8CCB-46A8-84BA-1044E130F213}" name="collision_group_mask"/>
-    <tableColumn id="26" xr3:uid="{68AA7C97-AB12-4942-9AA6-FEEAA3AC6ADE}" name="collision_group_head"/>
-    <tableColumn id="27" xr3:uid="{9CA0620B-0531-4092-90E9-F63A3E27339D}" name="collision_group_tail"/>
-    <tableColumn id="28" xr3:uid="{A1919CF9-77BF-482D-91E1-6E6D1FB81590}" name="linear_damping"/>
-    <tableColumn id="29" xr3:uid="{2B46ED3F-7FB1-4B4B-A3E2-3342699CFD28}" name="linear_damping_head"/>
-    <tableColumn id="30" xr3:uid="{F60E89CB-1A75-438C-B7D6-D93647823752}" name="linear_damping_tail"/>
-    <tableColumn id="31" xr3:uid="{31D68AD3-715F-44DD-A513-8BAD9A0349C7}" name="angular_damping"/>
-    <tableColumn id="32" xr3:uid="{CE90B411-0AC7-45BD-9BB1-6A58D469A4C5}" name="angular_damping_min"/>
-    <tableColumn id="33" xr3:uid="{1EA9FE98-CAF3-4EB7-B689-7D890179E38F}" name="angular_damping_max"/>
+    <tableColumn id="1" xr3:uid="{6A8B691E-AF96-403F-B914-BFE48986FDFE}" name="rigid_body_name"/>
+    <tableColumn id="2" xr3:uid="{D529FA73-CE16-460E-A8A9-9CF0FD1F3902}" name="bone_name"/>
+    <tableColumn id="3" xr3:uid="{FF9CAFAE-F97D-40F8-9E46-132054C6EA61}" name="offset_x"/>
+    <tableColumn id="4" xr3:uid="{8833E079-2DA0-4EB3-9DFA-9AD99A796196}" name="offset_y"/>
+    <tableColumn id="5" xr3:uid="{095109F6-AACB-4C84-A594-F2AE7CFF4524}" name="offset_z"/>
+    <tableColumn id="6" xr3:uid="{D72CF1BD-DDD2-4A75-9828-ACD5CC3937F4}" name="name_j"/>
+    <tableColumn id="7" xr3:uid="{D83632ED-0968-480E-B165-24DBDF358F47}" name="name_e"/>
+    <tableColumn id="8" xr3:uid="{E89DC4DF-37A3-4F11-923B-EFDC057A52AE}" name="rigid_type"/>
+    <tableColumn id="9" xr3:uid="{314506B7-7CEA-41C7-BC4F-B109BB66A4DF}" name="rigid_shape"/>
+    <tableColumn id="10" xr3:uid="{87E875F6-7D11-469E-8DDA-E72A00EE3907}" name="x"/>
+    <tableColumn id="11" xr3:uid="{94B191E0-127A-42CA-8644-AEBCCEE6CC30}" name="y"/>
+    <tableColumn id="12" xr3:uid="{A8BB5E62-847F-48DC-AD65-E674D1C90E54}" name="z"/>
+    <tableColumn id="13" xr3:uid="{8DD2C468-97C2-4BB3-B1D5-4597135ED3CF}" name="x_head"/>
+    <tableColumn id="14" xr3:uid="{625116D0-A9A2-4C43-8140-55EADC873ADD}" name="x_tail"/>
+    <tableColumn id="15" xr3:uid="{A76062FB-F24F-49D7-A355-7A7CB2ACCA52}" name="y_head"/>
+    <tableColumn id="16" xr3:uid="{349D400D-FEF6-4B10-B1A2-6FC509E641C7}" name="y_tail"/>
+    <tableColumn id="17" xr3:uid="{3CF13387-AABC-4E6A-A58C-EEBEEC7CD40A}" name="z_head"/>
+    <tableColumn id="18" xr3:uid="{13C53DFC-6947-490A-A177-D1D5B61DBF8A}" name="z_tail"/>
+    <tableColumn id="19" xr3:uid="{48A4FED0-88A9-41AA-AA81-AB2046CAD500}" name="mass"/>
+    <tableColumn id="20" xr3:uid="{578D9836-C91E-40C2-A93E-6603DAF8637E}" name="mass_head"/>
+    <tableColumn id="21" xr3:uid="{E0D94A3E-7E39-4C08-9145-EBA0C5C2AF90}" name="mass_tail"/>
+    <tableColumn id="22" xr3:uid="{91287EEC-4D04-44DC-BC2F-73A88775A8D9}" name="bounce"/>
+    <tableColumn id="23" xr3:uid="{BF23D0E2-4E23-48FA-86AE-C1EB68AEEF29}" name="collision_group"/>
+    <tableColumn id="24" xr3:uid="{9F09C813-63E3-4C2C-AD55-FDEAD8B77E65}" name="friction"/>
+    <tableColumn id="25" xr3:uid="{D78BD478-5AA5-4AF1-9205-050106ED54DB}" name="friction_head"/>
+    <tableColumn id="26" xr3:uid="{47F5F7CA-0136-4BFB-9C44-DEAD52149587}" name="friction_tail"/>
+    <tableColumn id="27" xr3:uid="{733CA007-9C6B-42B7-9B62-829AA3B160BD}" name="collision_group_mask"/>
+    <tableColumn id="28" xr3:uid="{8AA88FA3-994F-4554-9829-B682F754798D}" name="collision_group_head"/>
+    <tableColumn id="29" xr3:uid="{24AB04AD-FBFE-4DB1-850D-F3209A911D35}" name="collision_group_tail"/>
+    <tableColumn id="30" xr3:uid="{1C19AF36-62CA-45F9-B290-D81512BBC0C9}" name="linear_damping"/>
+    <tableColumn id="31" xr3:uid="{0B2D4A69-BB7F-4FFE-87D7-76C0450BA3D6}" name="linear_damping_head"/>
+    <tableColumn id="32" xr3:uid="{5FA7C73A-B19F-4F4C-A4F9-3705A07F89DD}" name="linear_damping_tail"/>
+    <tableColumn id="33" xr3:uid="{2CF4BB2C-4317-4E32-B2C0-4898A42E6EF0}" name="angular_damping"/>
+    <tableColumn id="34" xr3:uid="{B86F103A-80B6-4F81-9B65-00689CA9B862}" name="angular_damping_min"/>
+    <tableColumn id="35" xr3:uid="{F9224DFF-71DA-412F-AA39-F3E32F6ADAD8}" name="angular_damping_max"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2290,141 +2367,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D213BE9-EC88-43A5-B10E-7AC8A26A2FF6}">
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="Y28" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" customWidth="1"/>
     <col min="28" max="29" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" customWidth="1"/>
-    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" customWidth="1"/>
+    <col min="32" max="32" width="20.85546875" customWidth="1"/>
+    <col min="33" max="33" width="18.42578125" customWidth="1"/>
+    <col min="34" max="34" width="22.85546875" customWidth="1"/>
     <col min="35" max="35" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="20" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="20" t="s">
         <v>26</v>
       </c>
       <c r="AI1" s="11" t="s">
@@ -2432,1894 +2518,3606 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
         <v>0.06</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="13">
         <v>0.06</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="13">
         <v>0.08</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6">
-        <v>1</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="7"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13">
+        <v>1</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13">
+        <v>0</v>
+      </c>
+      <c r="W2" s="13">
+        <v>0</v>
+      </c>
+      <c r="X2" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="17"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="13">
         <v>0.05</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="3"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13">
+        <v>1</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13">
+        <v>0</v>
+      </c>
+      <c r="W3" s="13">
+        <v>0</v>
+      </c>
+      <c r="X3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="17"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="13">
         <v>0.06</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="13">
         <v>0.12</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.5</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0.5</v>
-      </c>
-      <c r="AG4">
-        <v>0.5</v>
-      </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13">
+        <v>1</v>
+      </c>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4" s="13">
+        <v>0</v>
+      </c>
+      <c r="X4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="17"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="13">
         <v>0.1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0.5</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0.5</v>
-      </c>
-      <c r="AG5">
-        <v>0.5</v>
-      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13">
+        <v>1</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13">
+        <v>0</v>
+      </c>
+      <c r="W5" s="13">
+        <v>0</v>
+      </c>
+      <c r="X5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="17"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="13">
         <v>0.06</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0.5</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0.5</v>
-      </c>
-      <c r="AG6">
-        <v>0.5</v>
-      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13">
+        <v>1</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
+      <c r="W6" s="13">
+        <v>0</v>
+      </c>
+      <c r="X6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="17"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="13">
         <v>0.08</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="13">
         <v>0.15</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0.5</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0.5</v>
-      </c>
-      <c r="AG7">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13">
+        <v>1</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
+      <c r="W7" s="13">
+        <v>0</v>
+      </c>
+      <c r="X7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="17"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="13">
         <v>0.03</v>
       </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0.5</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0.5</v>
-      </c>
-      <c r="AG8">
-        <v>0.5</v>
-      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13">
+        <v>1</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="17"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
         <v>-0.05</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="13">
         <v>0.08</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="13">
         <v>0.03</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0.5</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0.5</v>
-      </c>
-      <c r="AG9">
-        <v>0.5</v>
-      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13">
+        <v>1</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13">
+        <v>0</v>
+      </c>
+      <c r="W9" s="13">
+        <v>0</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="13">
         <v>0.01</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="13">
         <v>-0.05</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="13">
         <v>0.02</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="F10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="13">
         <v>5.5E-2</v>
       </c>
-      <c r="S10">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13">
         <v>0.1</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13">
         <v>0.9</v>
       </c>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6">
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13">
         <v>0.95</v>
       </c>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="17"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="13">
         <v>-0.01</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="13">
         <v>-0.05</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="13">
         <v>0.02</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="F11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="13">
         <v>5.5E-2</v>
       </c>
-      <c r="S11">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13">
         <v>0.1</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="13">
+        <v>0</v>
+      </c>
+      <c r="X11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13">
         <v>0.9</v>
       </c>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6">
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13">
         <v>0.95</v>
       </c>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="17"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="13">
         <v>0.1</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="13">
         <v>0.08</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0.5</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0.5</v>
-      </c>
-      <c r="AG12">
-        <v>0.5</v>
-      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13">
+        <v>1</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="17"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="13">
         <v>0.09</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0.5</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0.5</v>
-      </c>
-      <c r="AG13">
-        <v>0.5</v>
-      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13">
+        <v>1</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="17"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="13">
         <v>0.09</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0.5</v>
-      </c>
-      <c r="AG14">
-        <v>0.5</v>
-      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13">
+        <v>1</v>
+      </c>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="17"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="13">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="13">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0.5</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0.5</v>
-      </c>
-      <c r="AG15">
-        <v>0.5</v>
-      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13">
+        <v>1</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="17"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="13">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="13">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0.5</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0.5</v>
-      </c>
-      <c r="AG16">
-        <v>0.5</v>
-      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13">
+        <v>1</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13">
+        <v>0</v>
+      </c>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="17"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="13">
         <v>0.06</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="13">
         <v>0.4</v>
       </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0.5</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0.5</v>
-      </c>
-      <c r="AG17">
-        <v>0.5</v>
-      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13">
+        <v>1</v>
+      </c>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13">
+        <v>0</v>
+      </c>
+      <c r="W17" s="13">
+        <v>0</v>
+      </c>
+      <c r="X17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="17"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="13">
         <v>0.06</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="13">
         <v>0.4</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0.5</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0.5</v>
-      </c>
-      <c r="AG18">
-        <v>0.5</v>
-      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13">
+        <v>1</v>
+      </c>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13">
+        <v>0</v>
+      </c>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="17"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="13">
         <v>0.04</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="13">
         <v>0.13</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0.5</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0.5</v>
-      </c>
-      <c r="AG19">
-        <v>0.5</v>
-      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13">
+        <v>1</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13">
+        <v>0</v>
+      </c>
+      <c r="W19" s="13">
+        <v>0</v>
+      </c>
+      <c r="X19" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="17"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="13">
         <v>0.04</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="13">
         <v>0.13</v>
       </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0.5</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0.5</v>
-      </c>
-      <c r="AG20">
-        <v>0.5</v>
-      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13">
+        <v>1</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13">
+        <v>0</v>
+      </c>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="17"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="13">
         <v>0.08</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="13">
         <v>0.08</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0.5</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0.5</v>
-      </c>
-      <c r="AG21">
-        <v>0.5</v>
-      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13">
+        <v>1</v>
+      </c>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13">
+        <v>0</v>
+      </c>
+      <c r="W21" s="13">
+        <v>0</v>
+      </c>
+      <c r="X21" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="17"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="13">
         <v>0.08</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="13">
         <v>0.08</v>
       </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0.5</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0.5</v>
-      </c>
-      <c r="AG22">
-        <v>0.5</v>
-      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13">
+        <v>1</v>
+      </c>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0</v>
+      </c>
+      <c r="X22" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="17"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="13">
         <v>0.06</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13">
+        <v>1</v>
+      </c>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
         <v>14</v>
       </c>
-      <c r="X23">
-        <v>0.5</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0.5</v>
-      </c>
-      <c r="AG23">
-        <v>0.5</v>
-      </c>
+      <c r="X23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="13">
         <v>0.06</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13">
+        <v>1</v>
+      </c>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13">
+        <v>0</v>
+      </c>
+      <c r="W24" s="13">
         <v>14</v>
       </c>
-      <c r="X24">
-        <v>0.5</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0.5</v>
-      </c>
-      <c r="AG24">
-        <v>0.5</v>
-      </c>
+      <c r="X24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="17"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="13">
         <v>0.05</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="13">
         <v>0.25</v>
       </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0.5</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0.5</v>
-      </c>
-      <c r="AG25">
-        <v>0.5</v>
-      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13">
+        <v>1</v>
+      </c>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+      <c r="X25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="17"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="13">
         <v>0.05</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="13">
         <v>0.25</v>
       </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0.5</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0.5</v>
-      </c>
-      <c r="AG26">
-        <v>0.5</v>
-      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13">
+        <v>1</v>
+      </c>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13">
+        <v>0</v>
+      </c>
+      <c r="W26" s="13">
+        <v>0</v>
+      </c>
+      <c r="X26" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="17"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="13">
         <v>0.04</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="13">
         <v>0.01</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="13">
         <v>0.04</v>
       </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0.5</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0.5</v>
-      </c>
-      <c r="AG27">
-        <v>0.5</v>
-      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13">
+        <v>1</v>
+      </c>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+      <c r="X27" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="17"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="13">
         <v>0.04</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="13">
         <v>0.01</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="13">
         <v>0.04</v>
       </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0.5</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0.5</v>
-      </c>
-      <c r="AG28">
-        <v>0.5</v>
-      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13">
+        <v>1</v>
+      </c>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13">
+        <v>0</v>
+      </c>
+      <c r="W28" s="13">
+        <v>0</v>
+      </c>
+      <c r="X28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="17"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="13">
         <v>0.03</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="13">
         <v>0.01</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="13">
         <v>0.05</v>
       </c>
-      <c r="T29">
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13">
         <v>5</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="13">
         <v>10</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
+      <c r="V29" s="13">
+        <v>0</v>
+      </c>
+      <c r="W29" s="13">
         <v>10</v>
       </c>
-      <c r="Y29">
-        <v>0.5</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="4" t="s">
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AE29">
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13">
         <v>0.995</v>
       </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AH29">
+      <c r="AF29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13">
         <v>0.89</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="13">
         <v>0.03</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="13">
         <v>0.04</v>
       </c>
-      <c r="T30">
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13">
         <v>10</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="13">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
+      <c r="V30" s="13">
+        <v>0</v>
+      </c>
+      <c r="W30" s="13">
         <v>8</v>
       </c>
-      <c r="Y30">
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13">
         <v>0.6</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="13">
         <v>0.45</v>
       </c>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="17"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="13">
         <v>0.02</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="13">
         <v>0.09</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="13">
         <v>0.04</v>
       </c>
-      <c r="S31">
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13">
         <v>10</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13">
+        <v>0</v>
+      </c>
+      <c r="W31" s="13">
         <v>4</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="13">
         <v>0.6</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>1</v>
-      </c>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="13">
         <v>0.05</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="13">
         <v>0.05</v>
       </c>
-      <c r="S32">
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13">
         <v>5</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13">
+        <v>0</v>
+      </c>
+      <c r="W32" s="13">
         <v>4</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="13">
         <v>0.6</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD32">
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13">
         <v>0.75</v>
       </c>
-      <c r="AG32">
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13">
         <v>0.75</v>
       </c>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="17"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="13">
         <v>0.01</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="13">
         <v>0.01</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="13">
         <v>0.03</v>
       </c>
-      <c r="S33">
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13">
         <v>10</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13">
+        <v>0</v>
+      </c>
+      <c r="W33" s="13">
         <v>4</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="13">
         <v>0.6</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AG33">
-        <v>1</v>
-      </c>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="17"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="13">
         <v>0.01</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="13">
         <v>0.01</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="13">
         <v>0.03</v>
       </c>
-      <c r="S34">
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13">
         <v>10</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13">
+        <v>0</v>
+      </c>
+      <c r="W34" s="13">
         <v>4</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="13">
         <v>0.6</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
-      </c>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="17"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D35">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
         <v>0.04</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="13">
         <v>0.02</v>
       </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="F35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="13">
         <v>0.02</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="13">
         <v>0.09</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="13">
         <v>0.04</v>
       </c>
-      <c r="S35">
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13">
         <v>10</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13">
+        <v>0</v>
+      </c>
+      <c r="W35" s="13">
         <v>6</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="13">
         <v>0.6</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
-      </c>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="17"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D36">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13">
         <v>0.02</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="13">
         <v>0.03</v>
       </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="F36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="13">
         <v>0.02</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="13">
         <v>0.03</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="13">
         <v>0.08</v>
       </c>
-      <c r="S36">
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13">
         <v>5</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13">
+        <v>0</v>
+      </c>
+      <c r="W36" s="13">
         <v>6</v>
       </c>
-      <c r="X36">
+      <c r="X36" s="13">
         <v>0.6</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD36">
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13">
         <v>0.75</v>
       </c>
-      <c r="AG36">
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13">
         <v>0.75</v>
       </c>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="17"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="16">
         <v>2</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="M37">
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16">
         <v>0.01</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="16">
         <v>0.04</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="O37" s="16">
+        <v>0</v>
+      </c>
+      <c r="P37" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16">
         <v>0.01</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="16">
         <v>0.03</v>
       </c>
-      <c r="T37">
+      <c r="S37" s="16"/>
+      <c r="T37" s="16">
         <v>50</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="16">
         <v>50</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
+      <c r="V37" s="16">
+        <v>0</v>
+      </c>
+      <c r="W37" s="16">
         <v>3</v>
       </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37">
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="16">
         <v>0.52</v>
       </c>
-      <c r="AA37" s="8" t="s">
+      <c r="AA37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AE37">
-        <v>0.5</v>
-      </c>
-      <c r="AF37">
-        <v>1</v>
-      </c>
-      <c r="AH37">
-        <v>0.5</v>
-      </c>
-      <c r="AI37">
-        <v>1</v>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AF37" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AI37" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38">
+        <v>0.03</v>
+      </c>
+      <c r="K38">
+        <v>0.06</v>
+      </c>
+      <c r="S38">
+        <v>0.6</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>4</v>
+      </c>
+      <c r="X38">
+        <v>0.5</v>
+      </c>
+      <c r="AA38">
+        <v>4</v>
+      </c>
+      <c r="AD38">
+        <v>0.6</v>
+      </c>
+      <c r="AG38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39">
+        <v>0.03</v>
+      </c>
+      <c r="K39">
+        <v>0.125</v>
+      </c>
+      <c r="S39">
+        <v>0.7</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>4</v>
+      </c>
+      <c r="X39">
+        <v>0.5</v>
+      </c>
+      <c r="AA39">
+        <v>4</v>
+      </c>
+      <c r="AD39">
+        <v>0.7</v>
+      </c>
+      <c r="AG39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40">
+        <v>0.03</v>
+      </c>
+      <c r="K40">
+        <v>0.125</v>
+      </c>
+      <c r="S40">
+        <v>0.8</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>4</v>
+      </c>
+      <c r="X40">
+        <v>0.5</v>
+      </c>
+      <c r="AA40">
+        <v>4</v>
+      </c>
+      <c r="AD40">
+        <v>0.8</v>
+      </c>
+      <c r="AG40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41">
+        <v>0.03</v>
+      </c>
+      <c r="K41">
+        <v>0.125</v>
+      </c>
+      <c r="S41">
+        <v>0.9</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>4</v>
+      </c>
+      <c r="X41">
+        <v>0.5</v>
+      </c>
+      <c r="AA41">
+        <v>4</v>
+      </c>
+      <c r="AD41">
+        <v>0.9</v>
+      </c>
+      <c r="AG41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42">
+        <v>0.03</v>
+      </c>
+      <c r="K42">
+        <v>0.125</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>4</v>
+      </c>
+      <c r="X42">
+        <v>0.5</v>
+      </c>
+      <c r="AA42">
+        <v>4</v>
+      </c>
+      <c r="AD42">
+        <v>0.99</v>
+      </c>
+      <c r="AG42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J43">
+        <v>0.01</v>
+      </c>
+      <c r="K43">
+        <v>0.08</v>
+      </c>
+      <c r="L43">
+        <v>0.09</v>
+      </c>
+      <c r="S43">
+        <v>0.5</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>10</v>
+      </c>
+      <c r="X43">
+        <v>0.5</v>
+      </c>
+      <c r="AA43" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD43">
+        <v>0.995</v>
+      </c>
+      <c r="AG43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44">
+        <v>0.01</v>
+      </c>
+      <c r="K44">
+        <v>0.08</v>
+      </c>
+      <c r="L44">
+        <v>0.09</v>
+      </c>
+      <c r="S44">
+        <v>0.5</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="X44">
+        <v>0.5</v>
+      </c>
+      <c r="AA44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD44">
+        <v>0.995</v>
+      </c>
+      <c r="AG44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45">
+        <v>0.01</v>
+      </c>
+      <c r="K45">
+        <v>0.08</v>
+      </c>
+      <c r="L45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S45">
+        <v>0.08</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="X45">
+        <v>0.5</v>
+      </c>
+      <c r="AA45" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD45">
+        <v>0.996</v>
+      </c>
+      <c r="AG45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46">
+        <v>0.01</v>
+      </c>
+      <c r="K46">
+        <v>0.08</v>
+      </c>
+      <c r="L46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S46">
+        <v>0.08</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>10</v>
+      </c>
+      <c r="X46">
+        <v>0.5</v>
+      </c>
+      <c r="AA46" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD46">
+        <v>0.996</v>
+      </c>
+      <c r="AG46">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47">
+        <v>0.01</v>
+      </c>
+      <c r="K47">
+        <v>0.08</v>
+      </c>
+      <c r="L47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S47">
+        <v>0.06</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>10</v>
+      </c>
+      <c r="X47">
+        <v>0.5</v>
+      </c>
+      <c r="AA47" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD47">
+        <v>0.997</v>
+      </c>
+      <c r="AG47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48">
+        <v>0.01</v>
+      </c>
+      <c r="K48">
+        <v>0.08</v>
+      </c>
+      <c r="L48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S48">
+        <v>0.06</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>10</v>
+      </c>
+      <c r="X48">
+        <v>0.5</v>
+      </c>
+      <c r="AA48" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD48">
+        <v>0.997</v>
+      </c>
+      <c r="AG48">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49">
+        <v>0.01</v>
+      </c>
+      <c r="K49">
+        <v>0.08</v>
+      </c>
+      <c r="L49">
+        <v>0.19</v>
+      </c>
+      <c r="S49">
+        <v>0.5</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>10</v>
+      </c>
+      <c r="X49">
+        <v>0.5</v>
+      </c>
+      <c r="AA49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD49">
+        <v>0.995</v>
+      </c>
+      <c r="AG49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50">
+        <v>0.01</v>
+      </c>
+      <c r="K50">
+        <v>0.08</v>
+      </c>
+      <c r="L50">
+        <v>0.19</v>
+      </c>
+      <c r="S50">
+        <v>0.5</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>10</v>
+      </c>
+      <c r="X50">
+        <v>0.5</v>
+      </c>
+      <c r="AA50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD50">
+        <v>0.995</v>
+      </c>
+      <c r="AG50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51">
+        <v>0.01</v>
+      </c>
+      <c r="K51">
+        <v>0.08</v>
+      </c>
+      <c r="L51">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S51">
+        <v>0.08</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>10</v>
+      </c>
+      <c r="X51">
+        <v>0.5</v>
+      </c>
+      <c r="AA51" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD51">
+        <v>0.996</v>
+      </c>
+      <c r="AG51">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52">
+        <v>0.01</v>
+      </c>
+      <c r="K52">
+        <v>0.08</v>
+      </c>
+      <c r="L52">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S52">
+        <v>0.08</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>10</v>
+      </c>
+      <c r="X52">
+        <v>0.5</v>
+      </c>
+      <c r="AA52" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD52">
+        <v>0.996</v>
+      </c>
+      <c r="AG52">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53">
+        <v>0.01</v>
+      </c>
+      <c r="K53">
+        <v>0.08</v>
+      </c>
+      <c r="L53">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S53">
+        <v>0.06</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>10</v>
+      </c>
+      <c r="X53">
+        <v>0.5</v>
+      </c>
+      <c r="AA53" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD53">
+        <v>0.997</v>
+      </c>
+      <c r="AG53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54">
+        <v>0.01</v>
+      </c>
+      <c r="K54">
+        <v>0.08</v>
+      </c>
+      <c r="L54">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S54">
+        <v>0.06</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>10</v>
+      </c>
+      <c r="X54">
+        <v>0.5</v>
+      </c>
+      <c r="AA54" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD54">
+        <v>0.997</v>
+      </c>
+      <c r="AG54">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J55">
+        <v>0.01</v>
+      </c>
+      <c r="K55">
+        <v>0.1</v>
+      </c>
+      <c r="L55">
+        <v>0.1</v>
+      </c>
+      <c r="S55">
+        <v>0.5</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>10</v>
+      </c>
+      <c r="X55">
+        <v>0.5</v>
+      </c>
+      <c r="AA55" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD55">
+        <v>0.995</v>
+      </c>
+      <c r="AG55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56">
+        <v>0.01</v>
+      </c>
+      <c r="K56">
+        <v>0.1</v>
+      </c>
+      <c r="L56">
+        <v>0.1</v>
+      </c>
+      <c r="S56">
+        <v>0.5</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>10</v>
+      </c>
+      <c r="X56">
+        <v>0.5</v>
+      </c>
+      <c r="AA56" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD56">
+        <v>0.995</v>
+      </c>
+      <c r="AG56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57">
+        <v>0.01</v>
+      </c>
+      <c r="K57">
+        <v>0.12</v>
+      </c>
+      <c r="L57">
+        <v>0.125</v>
+      </c>
+      <c r="S57">
+        <v>0.08</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>10</v>
+      </c>
+      <c r="X57">
+        <v>0.5</v>
+      </c>
+      <c r="AA57" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD57">
+        <v>0.996</v>
+      </c>
+      <c r="AG57">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58">
+        <v>0.01</v>
+      </c>
+      <c r="K58">
+        <v>0.12</v>
+      </c>
+      <c r="L58">
+        <v>0.125</v>
+      </c>
+      <c r="S58">
+        <v>0.08</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>10</v>
+      </c>
+      <c r="X58">
+        <v>0.5</v>
+      </c>
+      <c r="AA58" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD58">
+        <v>0.996</v>
+      </c>
+      <c r="AG58">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59">
+        <v>0.01</v>
+      </c>
+      <c r="K59">
+        <v>0.15</v>
+      </c>
+      <c r="L59">
+        <v>0.125</v>
+      </c>
+      <c r="S59">
+        <v>0.06</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>10</v>
+      </c>
+      <c r="X59">
+        <v>0.5</v>
+      </c>
+      <c r="AA59" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD59">
+        <v>0.997</v>
+      </c>
+      <c r="AG59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60">
+        <v>0.01</v>
+      </c>
+      <c r="K60">
+        <v>0.15</v>
+      </c>
+      <c r="L60">
+        <v>0.125</v>
+      </c>
+      <c r="S60">
+        <v>0.06</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>10</v>
+      </c>
+      <c r="X60">
+        <v>0.5</v>
+      </c>
+      <c r="AA60" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD60">
+        <v>0.997</v>
+      </c>
+      <c r="AG60">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
